--- a/PFOA inhalation Rat/Data/Dzierlenga_tissue_female_ORAL_2021.xlsx
+++ b/PFOA inhalation Rat/Data/Dzierlenga_tissue_female_ORAL_2021.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dpjio\Documents\GitHub\PFAS_PBK_models\PFOA inhalation Rat\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A2E3B6-FCB9-471A-96A4-2DFF04E4BE2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD71394D-4C6E-4196-9EF0-4018AF072C94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -56,10 +56,10 @@
     <t>oral</t>
   </si>
   <si>
-    <t>Concentration_microg_per_g_organ</t>
+    <t>Kidney</t>
   </si>
   <si>
-    <t>Kidney</t>
+    <t>Concentration_microM</t>
   </si>
 </sst>
 </file>
@@ -551,15 +551,12 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -920,7 +917,7 @@
   <dimension ref="A1:E15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -939,7 +936,7 @@
         <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>4</v>
@@ -955,8 +952,8 @@
       <c r="B2" s="1">
         <v>3</v>
       </c>
-      <c r="C2" s="3">
-        <v>76.210857137912996</v>
+      <c r="C2" s="1">
+        <v>184.05307590000001</v>
       </c>
       <c r="D2" s="1">
         <v>80</v>
@@ -972,8 +969,8 @@
       <c r="B3" s="1">
         <v>6</v>
       </c>
-      <c r="C3" s="3">
-        <v>162.769973996982</v>
+      <c r="C3" s="1">
+        <v>393.0977226</v>
       </c>
       <c r="D3" s="1">
         <v>80</v>
@@ -989,8 +986,8 @@
       <c r="B4" s="1">
         <v>9</v>
       </c>
-      <c r="C4" s="3">
-        <v>58.710210367995003</v>
+      <c r="C4" s="1">
+        <v>141.7881285</v>
       </c>
       <c r="D4" s="1">
         <v>80</v>
@@ -1006,8 +1003,8 @@
       <c r="B5" s="1">
         <v>12</v>
       </c>
-      <c r="C5" s="3">
-        <v>8.5586451770991001</v>
+      <c r="C5" s="1">
+        <v>20.669561130000002</v>
       </c>
       <c r="D5" s="1">
         <v>80</v>
@@ -1023,8 +1020,8 @@
       <c r="B6" s="1">
         <v>24</v>
       </c>
-      <c r="C6" s="3">
-        <v>0.58676624156527002</v>
+      <c r="C6" s="1">
+        <v>1.4170701610000001</v>
       </c>
       <c r="D6" s="1">
         <v>80</v>
@@ -1035,13 +1032,13 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1">
         <v>3</v>
       </c>
-      <c r="C7" s="3">
-        <v>146.39706616772597</v>
+      <c r="C7" s="1">
+        <v>353.55632179999998</v>
       </c>
       <c r="D7" s="1">
         <v>80</v>
@@ -1052,13 +1049,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1">
         <v>6</v>
       </c>
-      <c r="C8" s="3">
-        <v>208.26646351706898</v>
+      <c r="C8" s="1">
+        <v>502.97404669999997</v>
       </c>
       <c r="D8" s="1">
         <v>80</v>
@@ -1069,13 +1066,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1">
         <v>9</v>
       </c>
-      <c r="C9" s="3">
-        <v>73.632663905815988</v>
+      <c r="C9" s="1">
+        <v>177.8266088</v>
       </c>
       <c r="D9" s="1">
         <v>80</v>
@@ -1086,13 +1083,13 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10" s="1">
         <v>12</v>
       </c>
-      <c r="C10" s="3">
-        <v>12.595009052427701</v>
+      <c r="C10" s="1">
+        <v>30.41758411</v>
       </c>
       <c r="D10" s="1">
         <v>80</v>
@@ -1103,13 +1100,13 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B11" s="1">
         <v>24</v>
       </c>
-      <c r="C11" s="3">
-        <v>0.59463577897244002</v>
+      <c r="C11" s="1">
+        <v>1.4360754920000001</v>
       </c>
       <c r="D11" s="1">
         <v>80</v>
@@ -1125,8 +1122,8 @@
       <c r="B12" s="1">
         <v>3</v>
       </c>
-      <c r="C12" s="3">
-        <v>2.0884263508991401</v>
+      <c r="C12" s="1">
+        <v>5.0436553020000003</v>
       </c>
       <c r="D12" s="1">
         <v>80</v>
@@ -1142,8 +1139,8 @@
       <c r="B13" s="1">
         <v>6</v>
       </c>
-      <c r="C13" s="3">
-        <v>3.3718674108998599</v>
+      <c r="C13" s="1">
+        <v>8.143230398</v>
       </c>
       <c r="D13" s="1">
         <v>80</v>
@@ -1159,8 +1156,8 @@
       <c r="B14" s="1">
         <v>9</v>
       </c>
-      <c r="C14" s="3">
-        <v>1.1454422633514001</v>
+      <c r="C14" s="1">
+        <v>2.7663010200000002</v>
       </c>
       <c r="D14" s="1">
         <v>80</v>
